--- a/test/testids.xlsx
+++ b/test/testids.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>名称</t>
   </si>
@@ -52,16 +52,46 @@
     <t>02</t>
   </si>
   <si>
+    <t>02 二号仓库</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2022-10-26 00:26:50</t>
+  </si>
+  <si>
     <t>一仓一区02位</t>
   </si>
   <si>
     <t>010102</t>
   </si>
   <si>
+    <t>010102 一仓一区02位</t>
+  </si>
+  <si>
+    <t>2022-10-25 23:59:25</t>
+  </si>
+  <si>
     <t>一仓一区01位</t>
   </si>
   <si>
     <t>010101</t>
+  </si>
+  <si>
+    <t>010101 一仓一区01位</t>
+  </si>
+  <si>
+    <t>2022-10-25 23:58:38</t>
   </si>
 </sst>
 </file>
@@ -372,10 +402,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
@@ -428,24 +455,95 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>